--- a/src/assets/templateFiles/gasReceipt template.xlsx
+++ b/src/assets/templateFiles/gasReceipt template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drive D\Moshtarin\Saadati_AsiaWat\SorceCode\Front\src\assets\templateFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510A5DF6-9CF6-4087-9F89-6CDAAECA413C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3ED5DD4-7D41-43BF-9B65-9BB0435D461B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="15375" windowHeight="7875" xr2:uid="{86B370E9-D8E9-477F-AB3B-B0B7C1815D35}"/>
+    <workbookView xWindow="3900" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{86B370E9-D8E9-477F-AB3B-B0B7C1815D35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>رقم قبلی</t>
   </si>
@@ -43,18 +43,6 @@
   </si>
   <si>
     <t>تاریخ قبلی شمسی</t>
-  </si>
-  <si>
-    <t>1385/10/24</t>
-  </si>
-  <si>
-    <t>1385/12/22</t>
-  </si>
-  <si>
-    <t>1386/02/25</t>
-  </si>
-  <si>
-    <t>1386/04/24</t>
   </si>
   <si>
     <t>شماره اشتراک</t>
@@ -484,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FC1057-D29C-4FD4-87FC-D435B82E30F6}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I4" sqref="A2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,10 +490,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -524,84 +512,6 @@
       </c>
       <c r="H1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>4183724179</v>
-      </c>
-      <c r="B2">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>24040</v>
-      </c>
-      <c r="F2">
-        <v>25670</v>
-      </c>
-      <c r="G2">
-        <v>1630</v>
-      </c>
-      <c r="H2">
-        <v>149000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>4183724179</v>
-      </c>
-      <c r="B3">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>25670</v>
-      </c>
-      <c r="F3">
-        <v>26370</v>
-      </c>
-      <c r="G3">
-        <v>700</v>
-      </c>
-      <c r="H3">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4183724179</v>
-      </c>
-      <c r="B4">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>26370</v>
-      </c>
-      <c r="F4">
-        <v>26505</v>
-      </c>
-      <c r="G4">
-        <v>135</v>
-      </c>
-      <c r="H4">
-        <v>18000</v>
       </c>
     </row>
   </sheetData>
